--- a/doc/竞技场/竞技场文档.xlsx
+++ b/doc/竞技场/竞技场文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>竞技场挑战流程</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、XXXX-XX-XX XX:XX 你挑战玩家【</t>
     </r>
     <r>
@@ -177,6 +183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2、XXXX-XX-XX XX:XX【</t>
     </r>
     <r>
@@ -250,6 +262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2、XXXX-XX-XX XX:XX【</t>
     </r>
     <r>
@@ -270,6 +288,70 @@
       </rPr>
       <t>】挑战你失败，你的排名不变</t>
     </r>
+  </si>
+  <si>
+    <t>竞技场整点结算奖励邮件</t>
+  </si>
+  <si>
+    <t>竞技场奖励</t>
+  </si>
+  <si>
+    <r>
+      <t>恭喜您获得竞技场排行第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <t>点击领取奖励：XX*1000</t>
+  </si>
+  <si>
+    <t>月卡邮件</t>
+  </si>
+  <si>
+    <t>尊享月卡</t>
+  </si>
+  <si>
+    <r>
+      <t>月卡每日返钻，您的月卡剩余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">天。 </t>
+    </r>
+  </si>
+  <si>
+    <t>点击领取X天月卡奖励：XX*1000、XX*10000</t>
   </si>
 </sst>
 </file>
@@ -278,11 +360,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,36 +380,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,24 +445,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,79 +461,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,12 +536,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -481,31 +550,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,145 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +741,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,39 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,164 +841,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,10 +998,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,6 +1057,54 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="4629150"/>
+          <a:ext cx="4667250" cy="6153150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E4:I31"/>
+  <dimension ref="E4:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I26"/>
+    <sheetView topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1376,11 +1493,10 @@
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1465,7 +1581,7 @@
       <c r="G28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1473,18 +1589,54 @@
       </c>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1519,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,5 +1680,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/竞技场/竞技场文档.xlsx
+++ b/doc/竞技场/竞技场文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>竞技场挑战流程</t>
   </si>
@@ -42,13 +42,13 @@
     <t>30名以上</t>
   </si>
   <si>
-    <t>n/4±5；n/3±5；n/3±5；n/1+5</t>
+    <t>n/4±5；n/3±5；n/3±5；n/1-5</t>
   </si>
   <si>
     <t>6-30名</t>
   </si>
   <si>
-    <t>n/4±1；n/3±1；n/3±1；n/1+1</t>
+    <t>n/4±1；n/3±1；n/3±1；n/1-1</t>
   </si>
   <si>
     <t>5名以内</t>
@@ -123,6 +123,12 @@
     <t>每次挑战保存竞技记录，最多保存最近的5条。</t>
   </si>
   <si>
+    <t>竞技场挑战记录</t>
+  </si>
+  <si>
+    <t>XXXX-XX-XX XX:XX=挑战时间</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -130,7 +136,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>1、XXXX-XX-XX XX:XX 你挑战玩家【</t>
+      <t>1、 你挑战玩家【</t>
     </r>
     <r>
       <rPr>
@@ -179,9 +185,6 @@
     </r>
   </si>
   <si>
-    <t>XXXX-XX-XX XX:XX=挑战时间</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -189,7 +192,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>2、XXXX-XX-XX XX:XX【</t>
+      <t>2、【</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +242,13 @@
   </si>
   <si>
     <r>
-      <t>3、XXXX-XX-XX XX:XX 你挑战玩家【</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、 你挑战玩家【</t>
     </r>
     <r>
       <rPr>
@@ -268,7 +277,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>2、XXXX-XX-XX XX:XX【</t>
+      <t>2、【</t>
     </r>
     <r>
       <rPr>
@@ -297,6 +306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>恭喜您获得竞技场排行第</t>
     </r>
     <r>
@@ -329,6 +344,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>月卡每日返钻，您的月卡剩余</t>
     </r>
     <r>
@@ -359,8 +380,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -392,21 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -422,6 +428,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -453,16 +481,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,54 +520,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,187 +571,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,29 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +785,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,15 +828,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,6 +842,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -849,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,10 +1416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E4:I43"/>
+  <dimension ref="E4:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1407,7 +1428,7 @@
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="64.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="76.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="83.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="44.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1603,40 +1624,45 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="1" t="s">
+    <row r="32" spans="8:8">
+      <c r="H32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="1" t="s">
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="3" t="s">
+    <row r="36" spans="8:8">
+      <c r="H36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="7:8">
-      <c r="G41" s="1" t="s">
+    <row r="37" spans="8:8">
+      <c r="H37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="1" t="s">
+    </row>
+    <row r="43" spans="7:8">
+      <c r="G43" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="8:8">
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
-      <c r="H43" s="3" t="s">
+    <row r="44" spans="8:8">
+      <c r="H44" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1697,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
